--- a/data-set/netout.xlsx
+++ b/data-set/netout.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,300 +438,4752 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>04/21/2021 17:38:45</t>
+          <t>04/21/2021 22:19:32</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3893.0</t>
+          <t>12.764</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>04/21/2021 17:40:47</t>
+          <t>04/21/2021 22:21:34</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10643.0</t>
+          <t>11.201</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04/21/2021 17:42:48</t>
+          <t>04/21/2021 22:23:36</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8008.0</t>
+          <t>82.606</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04/21/2021 17:44:50</t>
+          <t>04/21/2021 22:25:37</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2680.0</t>
+          <t>141.22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04/21/2021 17:46:52</t>
+          <t>04/21/2021 22:27:39</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5269.0</t>
+          <t>14.233</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04/21/2021 17:48:54</t>
+          <t>04/21/2021 22:29:41</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10356.0</t>
+          <t>13.147</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04/21/2021 17:50:55</t>
+          <t>04/21/2021 22:31:43</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>69900.0</t>
+          <t>17.641</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>04/21/2021 17:52:58</t>
+          <t>04/21/2021 22:33:45</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>69776.0</t>
+          <t>13.994</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>04/21/2021 17:54:59</t>
+          <t>04/21/2021 22:35:47</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>80423.0</t>
+          <t>12.64</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>04/21/2021 17:57:02</t>
+          <t>04/21/2021 22:37:51</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4856.0</t>
+          <t>77.099</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04/21/2021 17:59:04</t>
+          <t>04/21/2021 22:39:53</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>69864.0</t>
+          <t>140.37</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04/21/2021 18:01:07</t>
+          <t>04/21/2021 22:41:57</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>70790.0</t>
+          <t>134.672</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>04/21/2021 18:01:08</t>
+          <t>04/21/2021 22:43:59</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3352.0</t>
+          <t>138.081</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04/21/2021 18:03:10</t>
+          <t>04/21/2021 22:46:01</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>70586.0</t>
+          <t>140.578</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04/21/2021 18:03:10</t>
+          <t>04/21/2021 22:48:04</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2434.0</t>
+          <t>77.052</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04/21/2021 18:05:12</t>
+          <t>04/21/2021 22:48:05</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3666.0</t>
+          <t>73.194</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04/21/2021 18:05:13</t>
+          <t>04/21/2021 22:50:07</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>69278.0</t>
+          <t>73.856</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04/21/2021 18:07:15</t>
+          <t>04/21/2021 22:50:08</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>70482.0</t>
+          <t>73.09</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04/21/2021 18:07:15</t>
+          <t>04/21/2021 22:52:10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>70064.0</t>
+          <t>11.766</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>04/21/2021 18:09:18</t>
+          <t>04/21/2021 22:52:11</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>69620.0</t>
+          <t>13.068</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>04/21/2021 18:09:19</t>
+          <t>04/21/2021 22:54:13</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>70966.0</t>
+          <t>8.145</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04/21/2021 18:11:21</t>
+          <t>04/21/2021 22:54:14</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2756.0</t>
+          <t>21.345</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04/21/2021 18:11:23</t>
+          <t>04/21/2021 22:56:16</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4897.0</t>
+          <t>11.714</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>04/21/2021 18:13:24</t>
+          <t>04/21/2021 22:56:17</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>35186.0</t>
+          <t>13.596</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>04/21/2021 18:13:26</t>
+          <t>04/21/2021 22:58:20</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2992.0</t>
+          <t>13.978</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:02:23</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>12.844</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:04:25</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:06:27</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>133.726</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:08:29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>74.027</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:10:31</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>13.917</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:12:33</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>12.812</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:14:35</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>12.736</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:16:37</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>12.812</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:18:39</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:20:41</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>12.736</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:22:43</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>12.736</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:24:45</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>12.692</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:26:46</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>12.712</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:28:48</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>138.794</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:30:50</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>131.496</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:32:52</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>136.528</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:34:54</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>141.891</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:39:00</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>73.804</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:39:01</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>77.364</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:41:03</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>78.556</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:41:04</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>79.516</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:43:06</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>72.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:43:07</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>77.096</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:45:09</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>78.938</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:45:10</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>72.516</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:47:12</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>13.746</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:47:13</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>12.964</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:49:15</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:49:16</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>13.906</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:51:19</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>12.736</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:53:21</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>12.736</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:55:23</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>15.497</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:57:25</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>15.393</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>04/21/2021 23:59:26</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>13.558</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:01:28</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>16.393</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:03:31</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>12.716</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:05:33</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>71.294</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:09:36</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>137.096</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:11:40</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>78.382</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:13:42</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>136.588</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:15:44</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>140.618</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:17:47</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:19:50</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:19:51</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>15.807</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:21:52</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>13.558</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:21:53</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>14.876</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:23:55</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>13.634</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:23:56</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>12.816</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:26:00</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>12.182</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:30:03</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>136.852</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:32:05</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>140.922</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:34:07</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>129.888</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:36:09</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>77.244</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:38:12</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>73.157</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:40:14</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>75.994</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:40:16</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>10.891</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:42:17</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>76.912</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:42:18</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>77.336</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:44:21</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>77.846</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:44:22</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>77.949</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:46:23</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>77.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:46:24</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:48:26</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>12.812</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:48:27</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>74.622</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:50:29</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:50:30</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>12.892</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:52:32</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>12.812</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:52:33</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>12.892</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:54:36</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>04/22/2021 00:58:39</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>16.282</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:00:41</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>13.574</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:02:43</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>12.888</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:04:45</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>77.847</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:06:47</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>136.516</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:08:49</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>78.576</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:10:51</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>136.848</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:12:54</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>136.472</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:14:58</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>74.346</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:14:59</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>77.448</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:17:01</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>76.186</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:17:03</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>9.836</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:19:05</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>76.592</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:19:06</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:21:08</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>73.688</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:21:09</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>78.182</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:23:11</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>77.674</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:23:12</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>73.014</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:25:14</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>12.664</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:25:15</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>13.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:27:18</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>12.512</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:27:19</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>13.914</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:29:21</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>12.588</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:29:22</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>13.886</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:31:26</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>13.919</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:35:29</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>14.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:37:31</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>14.967</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:39:33</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>15.071</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:41:36</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>12.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:43:38</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>12.608</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:45:40</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>140.388</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:47:42</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>23.321</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:49:44</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>12.588</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:51:46</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>13.558</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:53:48</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>14.981</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:55:50</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>12.712</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:57:52</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>13.582</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>04/22/2021 01:59:53</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:01:55</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>136.972</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:03:57</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:05:59</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>15.163</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:08:01</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>11.666</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:10:03</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>11.742</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:12:05</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>11.714</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:14:07</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>8.088</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:16:09</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>136.692</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:18:11</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>77.966</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:20:14</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>70.062</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:22:16</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>11.562</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:24:19</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>13.634</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:26:22</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>12.652</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:26:23</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>14.018</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:28:25</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>58.299</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:28:26</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>12.864</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:30:28</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>13.949</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:30:29</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>12.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:32:33</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>12.788</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:34:36</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>12.788</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:38:39</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>128.504</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:40:41</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>79.376</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:42:43</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>75.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:44:44</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:46:46</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>12.964</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:48:48</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>14.049</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:50:50</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>15.232</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:52:52</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>12.736</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:54:54</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>12.888</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:56:56</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>13.626</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>04/22/2021 02:58:57</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>12.816</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:00:59</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>12.688</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:03:01</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>15.473</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:05:03</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>12.664</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:07:05</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>11.915</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:09:07</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>12.588</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:11:09</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>15.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:13:11</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>8.404</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:15:12</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>132.884</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:17:14</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>80.621</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:19:16</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>69.698</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:21:18</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>75.764</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:23:19</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>13.658</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:25:21</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:27:23</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:29:25</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>12.876</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:31:27</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>13.658</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:33:29</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>11.842</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:35:31</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>13.706</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:37:33</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>12.186</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:39:35</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>84.103</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:41:37</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>13.686</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:43:39</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>12.612</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:45:41</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:47:44</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>13.686</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:49:46</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:51:48</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>12.688</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:53:50</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>14.613</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:55:52</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>74.702</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:57:54</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>136.744</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>04/22/2021 03:59:56</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>140.658</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:01:58</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>129.868</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:04:01</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>77.172</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:06:03</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>75.183</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:06:04</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:08:07</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:08:08</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>75.226</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:10:10</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>9.122</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:10:11</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>77.628</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:12:13</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>78.881</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:12:14</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>77.364</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:14:16</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>74.027</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:14:17</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>73.378</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:16:18</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>12.532</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:16:19</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>17.564</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:18:21</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>12.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:18:23</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:20:25</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>12.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:20:26</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>13.048</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:22:28</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:24:32</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>12.664</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:26:34</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>12.588</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:28:36</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>16.619</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:30:38</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>12.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:32:40</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>15.517</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:34:42</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>136.444</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:36:44</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>10.171</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:38:45</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>13.825</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:40:47</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>12.588</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:42:49</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>13.738</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:44:51</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>13.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:46:53</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:48:55</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>12.688</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:50:57</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:52:59</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>136.864</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:55:01</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>140.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:57:03</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>130.778</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>04/22/2021 04:59:05</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>76.574</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:03:10</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:03:12</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>12.892</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:05:14</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>12.612</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:05:15</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>13.149</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:07:17</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>16.606</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:07:18</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>28.834</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:09:21</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>12.788</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:13:24</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>71.498</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:15:25</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>75.884</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:17:27</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>75.078</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:21:32</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>12.816</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:23:34</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>13.574</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:23:35</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>41.489</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:25:37</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:25:38</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>24.493</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:27:40</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>14.201</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:27:41</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>12.992</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:29:44</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>12.964</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:33:47</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>12.992</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:35:49</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>71.682</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:37:51</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>138.436</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:39:53</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>136.744</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:41:55</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>141.054</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:43:57</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>134.804</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:46:00</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>75.871</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:46:01</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>11.616</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:48:03</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>14.857</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:48:04</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>76.098</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:50:06</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:50:07</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>12.972</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:52:10</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>12.736</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:52:11</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>12.712</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:54:13</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>12.764</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:54:14</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>12.964</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>04/22/2021 05:56:18</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>12.964</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:00:21</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>8.444</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:02:23</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>75.816</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:04:25</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>81.169</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:06:27</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>12.604</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:08:29</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>12.712</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:10:30</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:12:32</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>12.636</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:14:34</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>15.088</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:16:36</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>12.736</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:18:38</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:20:41</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>10.538</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:22:43</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>140.702</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:24:45</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>133.946</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:26:47</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>136.556</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:28:50</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>69.602</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:30:52</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>18.446</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:32:55</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:32:56</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>13.962</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:34:58</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>18.185</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:34:59</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>12.964</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:37:01</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>17.755</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:37:02</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>12.892</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:39:05</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:41:08</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>140.542</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:45:11</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>76.882</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:49:14</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>136.532</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:51:17</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>140.414</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:53:21</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>136.664</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:55:23</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>77.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:55:24</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>141.355</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:57:26</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>76.366</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:57:27</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>78.203</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:59:29</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>73.544</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>04/22/2021 06:59:30</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>77.528</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>04/22/2021 07:01:32</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>12.788</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>04/22/2021 07:01:34</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>15.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>04/22/2021 07:03:37</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>13.754</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>04/22/2021 07:03:38</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>12.864</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>04/22/2021 07:05:40</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>12.832</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>04/22/2021 07:05:41</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>16.295</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>04/22/2021 07:07:44</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>14.988</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>04/22/2021 07:11:47</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>04/22/2021 07:13:49</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>140.826</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>04/22/2021 07:17:53</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>141.668</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>04/22/2021 07:19:55</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>128.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>04/22/2021 13:33:34</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>19.184</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>04/22/2021 13:33:42</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>12.732</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>04/22/2021 13:35:56</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>19.656</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>04/22/2021 13:36:06</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>19.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>04/22/2021 13:38:21</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>20.213</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>04/22/2021 13:38:31</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>04/22/2021 13:40:48</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>21.765</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>04/22/2021 13:43:12</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>21.614</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>04/22/2021 13:45:28</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>19.055</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>04/22/2021 13:47:45</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>23.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>04/22/2021 13:50:01</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>22.982</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>04/22/2021 13:52:17</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>81.353</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>04/22/2021 13:54:33</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>140.563</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>04/22/2021 13:56:49</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>150.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>04/22/2021 13:59:07</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>143.933</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:01:26</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>19.616</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:03:51</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>51.934</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:04:00</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>14.062</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:06:16</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:06:26</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>12.888</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:08:41</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>19.326</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:08:50</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>12.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:11:15</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>12.888</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:15:40</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>15.621</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:17:56</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>76.806</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:20:12</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>102.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:22:28</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>79.006</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:24:46</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:27:06</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>68.378</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:29:31</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>78.453</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:29:40</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>77.092</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:31:56</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>75.295</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:32:05</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>8.444</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:34:22</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>77.558</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:34:31</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>80.136</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:36:46</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>15.009</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:36:55</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:39:11</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>12.821</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:39:20</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>13.201</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:41:36</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>12.612</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:41:45</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>12.964</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:44:11</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:48:33</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>137.953</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:50:49</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>78.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:53:05</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>72.111</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:55:23</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>76.462</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>04/22/2021 14:57:44</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>79.455</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:00:09</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>13.678</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:00:18</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:02:34</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:02:43</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>12.992</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:04:59</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>12.736</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:05:08</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>12.872</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:07:34</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>12.892</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:11:58</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>142.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:14:13</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>12.736</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:16:29</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>12.812</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:18:45</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>12.816</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:21:01</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>13.802</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:23:17</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>12.712</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:25:34</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>71.294</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:30:06</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>78.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:32:23</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>75.512</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:34:39</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>12.764</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:36:56</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>12.664</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:39:11</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>23.032</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:41:28</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>12.636</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:43:44</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>12.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:46:00</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>12.872</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:48:15</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>9.675</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:50:31</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>69.594</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:55:02</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>143.339</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:57:18</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>134.953</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>04/22/2021 15:59:37</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>74.782</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>04/22/2021 16:04:26</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>77.276</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>04/22/2021 16:04:35</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>74.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>04/22/2021 16:06:51</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>72.842</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>04/22/2021 16:07:00</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>75.268</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>04/22/2021 16:09:15</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>04/22/2021 16:09:25</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>12.964</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>04/22/2021 16:11:40</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>14.672</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>04/22/2021 16:11:49</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>12.992</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>04/22/2021 16:14:05</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>12.664</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>04/22/2021 16:14:14</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>12.964</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>04/22/2021 16:16:32</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>12.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>04/22/2021 16:18:35</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>12.892</t>
         </is>
       </c>
     </row>
